--- a/src/test/resources/testdata/testdata 1.xlsx
+++ b/src/test/resources/testdata/testdata 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\TripGain-main (1)\TripGain-main\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174E6B47-61BA-441E-BE8C-88041EB56142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9803C0-0FFF-43AA-BCE9-C91484332654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC_01" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="138">
   <si>
     <t>Origin</t>
   </si>
@@ -3873,6 +3873,9 @@
       <c r="Q3" t="s">
         <v>100</v>
       </c>
+      <c r="R3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -4818,7 +4821,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4956,6 +4959,9 @@
       </c>
       <c r="M3" s="6">
         <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="13" x14ac:dyDescent="0.3">
@@ -5836,6 +5842,9 @@
       <c r="K3">
         <v>3.5</v>
       </c>
+      <c r="L3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -6651,7 +6660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3877337E-4BD1-49C8-A6FA-9A9905FBD253}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -6767,6 +6776,9 @@
       </c>
       <c r="K3" t="s">
         <v>89</v>
+      </c>
+      <c r="L3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7910,6 +7922,9 @@
       <c r="I3">
         <v>2</v>
       </c>
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -8468,8 +8483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF94DEAF-B1DD-4EA5-85BF-D4E02205DD65}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8521,7 +8536,7 @@
       <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D2">
@@ -8550,7 +8565,7 @@
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D3">
@@ -8570,6 +8585,9 @@
       </c>
       <c r="I3">
         <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -9131,8 +9149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD04321-50E0-421D-86E6-1A9692A85917}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
